--- a/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXGIS.JXTopsystem\Files\UploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018xm\XM\JXGIS.JXTopsystem\JXTopsys\JXTopsys\JXGIS.JXTopsystem\Files\UploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>市辖区</t>
   </si>
@@ -121,6 +121,24 @@
   <si>
     <t>门牌规格（30*20CM；40*60CM；21*15MM；18*14MM；15*10MM）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报单位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光社区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙思琦</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
   </si>
 </sst>
 </file>
@@ -130,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +188,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,60 +220,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,122 +598,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
     <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.625" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="T1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="15">
         <v>29</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="16">
+        <v>27</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="17">
         <v>38915</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4">
+        <v>15067390033</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="T2" s="20">
+        <v>314033</v>
+      </c>
+      <c r="U2" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>市辖区</t>
   </si>
@@ -107,22 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否制作门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30*20CM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门牌规格（30*20CM；40*60CM；21*15MM；18*14MM；15*10MM）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申报单位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -139,6 +127,10 @@
   </si>
   <si>
     <t>邮政编码</t>
+  </si>
+  <si>
+    <t>门牌规格（30*20CM；40*30CM；60*40CM；21*15CM；18*14CM；15*10CM）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,9 +278,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,10 +604,9 @@
     <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.625" customWidth="1"/>
     <col min="18" max="18" width="11.625" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -665,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
@@ -673,76 +661,70 @@
       <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="14">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="15">
+        <v>27</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="16">
+        <v>38915</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="12" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="15">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="16">
-        <v>27</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="17">
-        <v>38915</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="R2" s="4">
         <v>15067390033</v>
       </c>
-      <c r="S2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="20">
+      <c r="S2" s="19">
         <v>314033</v>
       </c>
-      <c r="U2" s="16"/>
+      <c r="T2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>市辖区</t>
   </si>
@@ -38,12 +38,6 @@
     <t>道路名称</t>
   </si>
   <si>
-    <t>道路起点</t>
-  </si>
-  <si>
-    <t>编制规则</t>
-  </si>
-  <si>
     <t>号码区段</t>
   </si>
   <si>
@@ -78,16 +72,6 @@
   </si>
   <si>
     <t>吉庆街</t>
-  </si>
-  <si>
-    <t>吉水路</t>
-  </si>
-  <si>
-    <t>吉丽街</t>
-  </si>
-  <si>
-    <t>自西向东，南单北双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27-29</t>
@@ -101,10 +85,6 @@
   </si>
   <si>
     <t>民和棋牌</t>
-  </si>
-  <si>
-    <t>道路讫点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30*20CM</t>
@@ -587,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="E1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,15 +578,14 @@
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.625" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.625" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -619,112 +598,94 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="H2" s="15">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="I2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="L2" s="16">
+        <v>38915</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="14">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="15">
-        <v>27</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="16">
-        <v>38915</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="4">
+      <c r="O2" s="4">
         <v>15067390033</v>
       </c>
-      <c r="S2" s="19">
+      <c r="P2" s="19">
         <v>314033</v>
       </c>
-      <c r="T2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
+++ b/JXGIS.JXTopsystem/Files/UploadFiles/道路门牌上传模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>市辖区</t>
   </si>
@@ -47,9 +47,6 @@
     <t>产权人姓名</t>
   </si>
   <si>
-    <t>原门牌号码</t>
-  </si>
-  <si>
     <t>商铺名称</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>编制日期</t>
-  </si>
-  <si>
-    <t>联系人</t>
   </si>
   <si>
     <t>联系电话</t>
@@ -109,7 +103,31 @@
     <t>邮政编码</t>
   </si>
   <si>
-    <t>门牌规格（30*20CM；40*30CM；60*40CM；21*15CM；18*14CM；15*10CM）</t>
+    <t>申办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原门牌地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路讫点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +193,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,26 +233,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,11 +294,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,125 +583,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.625" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14">
+        <v>29</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="15">
+        <v>27</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="16">
+        <v>38915</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="14">
-        <v>29</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="15">
-        <v>27</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="16">
-        <v>38915</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="S2" s="4">
         <v>15067390033</v>
       </c>
-      <c r="P2" s="19">
+      <c r="T2" s="3">
         <v>314033</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
